--- a/flows/work/.xlsx/转人工审批原因.xlsx
+++ b/flows/work/.xlsx/转人工审批原因.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675EEB7-79B1-43F6-801B-366C90FBB922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E4EF12-4D38-46EB-8454-B28BFA549497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/flows/work/.xlsx/转人工审批原因.xlsx
+++ b/flows/work/.xlsx/转人工审批原因.xlsx
@@ -1,79 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E4EF12-4D38-46EB-8454-B28BFA549497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356391FD-8F96-48FD-AC60-0592F6456030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="1035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>发票图片文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>图片链接</t>
   </si>
   <si>
-    <t>转人工审核原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>转人工审批原因</t>
   </si>
   <si>
-    <t>a0.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>https://www.example.com/invoice3.jpg</t>
   </si>
   <si>
-    <t>a4.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动识别多次识别结果不一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a7.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像辨识度低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动识别错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Low Image Recognition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -87,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,18 +75,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -129,44 +127,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -193,15 +191,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -228,7 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,193 +236,201 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/flows/work/.xlsx/转人工审批原因.xlsx
+++ b/flows/work/.xlsx/转人工审批原因.xlsx
@@ -1,67 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356391FD-8F96-48FD-AC60-0592F6456030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="1035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>图片链接</t>
-  </si>
-  <si>
-    <t>转人工审批原因</t>
-  </si>
-  <si>
-    <t>https://www.example.com/invoice3.jpg</t>
-  </si>
-  <si>
-    <t>Low Image Recognition</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,37 +420,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>图片链接</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>转人工审批原因</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.example.com/invoice3.jpg</t>
+        </is>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Low Image Recognition</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/flows/work/.xlsx/转人工审批原因.xlsx
+++ b/flows/work/.xlsx/转人工审批原因.xlsx
@@ -1,37 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C3268-387C-41AE-92B8-24B6FC1DA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4335" yWindow="1035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>图片链接</t>
+  </si>
+  <si>
+    <t>转人工审批原因</t>
+  </si>
+  <si>
+    <t>https://www.example.com/invoice3.jpg</t>
+  </si>
+  <si>
+    <t>Low Image Recognition</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +76,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,44 +400,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>图片链接</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>转人工审批原因</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.example.com/invoice3.jpg</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Low Image Recognition</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/flows/work/.xlsx/转人工审批原因.xlsx
+++ b/flows/work/.xlsx/转人工审批原因.xlsx
@@ -1,67 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C3268-387C-41AE-92B8-24B6FC1DA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="1035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>图片链接</t>
-  </si>
-  <si>
-    <t>转人工审批原因</t>
-  </si>
-  <si>
-    <t>https://www.example.com/invoice3.jpg</t>
-  </si>
-  <si>
-    <t>Low Image Recognition</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,31 +420,1724 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>图片链接</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>转人工审批原因</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ba885fa0-fbb1-4f7b-b681-fab66fc1bf5e_a0.jpg</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7b854267-3912-4023-a428-c9baac569f8c_a1.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fa286028-f3d8-4f31-b356-51681e38e8c7_a102.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0e90dc37-7de1-4462-a5c2-58d212e667d7_a104.jpg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/672b3327-e8d2-456d-8071-123ef8099020_a105.jpg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/db566598-213a-47ed-ac13-92af5a5e8baa_a11.jpg</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/23ade77b-7852-4dac-94e0-dfdc5f655d3d_a112.jpg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/16f457d9-d0c3-4069-bba7-85e3fee7d5de_a115.jpg</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d44c6f75-10e3-48df-a428-e8a4c47cd44d_a124.jpg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0691f9ba-7ca4-490b-ba25-88e13ecdf866_a126.jpg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c7c92852-e955-4b08-9a15-9e3aaca6c1b5_a13.jpg</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ca82124f-e2a9-4009-85ee-13d3a39217d2_a132.jpg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4e4b7088-63a6-49fb-afe6-5b088d4277d8_a136.jpg</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/065a4f0b-1a3e-4e1d-8fba-f8a3ffb19d87_a137.jpg</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8bdc1974-91fb-44bb-a4d7-b3b46d77b2a4_a14.jpg</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ae7a48d2-5c40-42e8-bf8c-fd0e4ccf7de3_a141.jpg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>无法识别开票日期 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/64a6733d-22aa-4f0e-b0a9-2a396d9aba52_a143.jpg</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5a326f91-597e-4677-a0d8-644e08ea7bea_a15.jpg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0f0bfcf0-eddb-40c3-a596-3b0c7cbac69e_a150.jpg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7579896d-b62d-4e65-bd84-56feed915465_a157.jpg</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/80b32c70-6ff6-4dd0-a82b-912270af3898_a160.jpg</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/951ca074-c7dd-4629-bf11-7d1b22417374_a168.jpg</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8a7d7d05-75c8-4da9-aff2-2b73244f2b70_a17.jpg</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/461779d5-309d-4be3-8127-8e9faa86c0e2_a172.jpg</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/64337ca1-fe61-4ac1-b263-4451295db922_a173.jpg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/60d600f5-f125-476a-a0fd-29cfb0aa882d_a175.jpg</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f314920f-7e15-4bba-b6a2-3fb385de32f3_a176.jpg</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/874a3299-0713-4d5c-aa83-2db67b664b8c_a179.jpg</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/dd9c353c-72cc-4ca0-a604-842a76db1e93_a181.jpg</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e05d6bbb-63de-47c2-be9b-bfe55ff4c3ae_a183.jpg</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b8c285b9-dc95-4570-80ba-cf95b5f8e0e5_a185.jpg</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ffc91861-6212-4a8b-be7e-2cd7d2cffdb9_a190.jpg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8ceb60e4-92a5-4c31-aebc-e5cc714db4e0_a191.jpg</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/434c1b74-dfa1-4231-86da-bc63973e3b3a_a192.jpg</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d3f6a473-b179-43ad-898e-a92509f6b97e_a196.jpg</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f65f87a4-eb32-497c-9e57-5d0500ab5a5d_a2.jpg</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b83303d5-b523-4de7-8246-6383741f0537_a200.jpg</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ff52de77-f6ee-4a6c-b611-afb6fdea421c_a201.jpg</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8c8837e5-5bcf-455d-a1af-dff6d67cf990_a202.jpg</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/69ee8af7-f9a3-47f6-bdee-badf9e97283a_a203.jpg</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7e9d70f4-c24d-44a3-b0c8-bb0baa636aa8_a205.jpg</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/112edfcf-f911-40ed-b163-b5d3566ce929_a208.jpg</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c77c5912-1cdb-429a-b454-70d259d7daa0_a21.jpg</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6ec8a363-0e49-45be-bc27-fa01453b6267_a210.jpg</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b8577f01-7c1c-403c-a71a-231d2d8933d2_a211.jpg</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>无法识别客户 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4a86f9f0-8c8c-41e9-870b-577b9ff19e89_a212.jpg</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>无法识别开票日期 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d7651b10-a4a6-49d4-ada5-51901842874e_a213.jpg</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6304d9f8-17e4-4c83-924e-a98de57512f2_a214.jpg</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/686e96b6-b7b3-4b09-921e-cbb1d4670ac9_a215.jpg</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9ca8044b-fced-45cb-8dd9-ce75f630304d_a217.jpg</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7555c168-6450-4951-bb51-2c8e319ebe59_a219.jpg</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4376e5b1-e628-4811-99f9-774f8e9d2071_a220.jpg</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>无法识别金额 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/76558400-a06d-49e0-a827-7f90a85d3b23_a224.jpg</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/cffe5246-c7a0-4399-a11a-8701a1dd228a_a225.jpg</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9d4b1751-37ee-4cfe-ab78-6640cf1c3a0d_a23.jpg</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/cdfe6c8e-e67e-4b31-a838-b3e406eaaf66_a236.jpg</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fc6abab1-fb79-48e3-98e2-22191ba95fe6_a237.jpg</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b922b0a5-b22a-4443-af25-5cea57c5a767_a246.jpg</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a7ccda7e-596f-46ec-a43f-f42dc9dc4b76_a25.jpg</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/eb2780b8-49ac-4d11-a007-0a5ce1acf058_a257.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/15da9589-1fb7-4135-bc90-ffb0b8ea16e3_a26.jpg</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/37b57945-115a-45cb-b474-a26627be418b_a263.jpg</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5dccd912-8823-4d04-bcad-6e248b3913b0_a266.jpg</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3c7c2fdc-0172-4382-88fe-9746cf6c87f7_a268.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ff5662cb-07fe-416d-be6f-523c4816fd91_a269.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ea18a49c-e2c1-4d11-afae-b71432b18cac_a27.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7e024dad-db0d-412a-9b24-14601fa7e618_a270.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7ab8cef6-1b62-4556-a9e0-ea2b015b4f42_a271.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c5d8392a-2984-4c37-a7df-58d25f32d3f6_a272.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2fa1d90f-daee-4755-b22c-69dda66443aa_a273.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/074c2b81-0563-44af-88f7-b06948c59644_a274.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fd956769-e3e2-4030-a89e-05d746342472_a276.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/39545afe-48a2-4ab4-8259-d80114b5fdd9_a277.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6cfb968b-7495-4634-af47-9fff69127402_a28.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c966be8e-db20-43a3-b31b-780cd9c7df0f_a281.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e3b1cd30-b7fb-40dc-a5b2-1852590ae41c_a283.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7aa5158f-0e85-4d33-96dd-66ee57f5b52e_a286.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3c71a674-7458-4ff3-a508-25b4d2023d61_a289.jpg</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/df7d141c-bf22-4915-b936-696ccf7bbe82_a292.jpg</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/88810213-4f00-4c33-8c06-aff5312c7e94_a296.jpg</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ce73a89e-2971-4760-a5db-32b268942be0_a302.jpg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/961397fe-a9c8-488f-81db-22202e130fa3_a304.jpg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bff3f7de-09ac-47e8-99ee-f009b23aceff_a306.jpg</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/409a2940-8e56-492c-9d6b-02c9a6fd5b86_a309.jpg</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e3618868-5fa5-454b-9144-c4f58262cd92_a312.jpg</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/22fba832-7fce-4135-802f-da8dda89ef9d_a315.jpg</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/017a274d-1a5b-4521-b626-36d89081ce0d_a316.jpg</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6a123366-3e16-493a-8927-99161070f806_a319.jpg</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/29c5a584-feb8-4230-8571-8b344f1f0f6c_a320.jpg</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>无法识别开票日期 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3b2e11e0-a961-4474-8ff2-4f43e5af19f1_a322.jpg</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3fe3e779-ea0f-4a94-91c6-e2f46a7f0837_a325.jpg</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2620a90d-58fd-4a55-814e-bcce79f404ef_a328.jpg</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/85ff5412-359d-48b2-8276-931ba54a72a1_a329.jpg</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/72fefc3a-7a22-4c9a-b8d2-02520afc6280_a33.jpg</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ec93bed9-f315-4e73-bb7f-4f76e9feb4d3_a333.jpg</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6707671a-d839-45e2-a4fd-57d4b01755ff_a336.jpg</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/49593071-eb53-4661-85dc-b6ecb22a7009_a34.jpg</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/db7ddce4-fc3a-48d6-833c-d246c38090d5_a35.jpg</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/00e6b714-3270-4a68-b07a-7e40093af68b_a36.jpg</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6ceac11b-0969-4424-8a18-d8d41d607361_a37.jpg</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2345b7b9-3b70-4722-8838-3599af70afe4_a38.jpg</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/45397be8-670d-4bc0-85a9-50e1462d231c_a39.jpg</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/63e5b7f6-a3e1-4939-9c5f-5f2095c73853_a4.jpg</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9de086ac-d148-46eb-b6cc-b400ed23357b_a41.jpg</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bebf1a8f-47b6-4f88-9d59-f3cc1689a3e5_a43.jpg</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0d369db4-75bf-43cb-aac7-8d4c803b7090_a44.jpg</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ccd57a88-0299-4c16-a02a-da778a3fc721_a45.jpg</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>无法识别开票日期 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b2960df4-304f-403c-b1b3-a844622a303f_a46.jpg</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e85abf92-70af-47e8-9047-91ae1166fb1a_a47.jpg</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4b831cc9-e044-4e42-a47d-8338fd7aca5e_a5.jpg</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0ecfd854-3bde-49e5-85f6-276646fe5816_a50.jpg</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9d31bcb4-12d8-40ac-835a-d77c42a74d5c_a53.jpg</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ce32ccfb-0b61-424b-a585-07b62491e9ce_a57.jpg</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d1e25339-65dd-4ddf-9211-ad6e038777be_a59.jpg</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4f435ef7-c614-4a23-b3ad-1fe16152a2a8_a60.jpg</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/26d62491-9957-45c7-b569-3bb8dbfe87ea_a61.jpg</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f95cb0cc-fc53-4ad3-8e12-aa195c33f5b5_a63.jpg</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6490dc9a-4642-4771-8d04-b8d6d4013445_a65.jpg</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/44b84a74-e390-41b4-bfa8-63d54a4d7f01_a66.jpg</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fe4c473f-4463-448f-8b52-af85f97d516a_a68.jpg</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e8a86724-8fdd-4377-ae0c-c2d13674f8eb_a7.jpg</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/55c3fbee-075d-47d1-9a9b-c8c63742404f_a70.jpg</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b2806d3b-d4be-4506-be88-e813931b05cd_a71.jpg</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5e5680eb-a24d-40e2-9a51-9b9731cd7341_a72.jpg</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0137cfe0-c2d7-478d-a48d-a349da6d3511_a76.jpg</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a408ada1-1926-43a6-8e7a-4ee11dc09b79_a79.jpg</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>付款方疑似识别不清 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b1dcda70-855b-45f4-b8d0-a797d9c5a542_a8.jpg</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3209a401-036b-41ab-baf2-24ee78442b8b_a82.jpg</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/614678c6-71b3-4b93-8e5c-36b7c65b0232_a88.jpg</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4c292fc5-d4b3-4b0d-8c5e-19a757159b0f_a90.jpg</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/1b4921b1-62cd-4e3c-aae9-f590568f7717_a91.jpg</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3bf3f0a5-2f2f-476f-99cc-4c50b604fab4_a94.jpg</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7d2eb13c-f831-46dc-845a-7b976c792ba2_a95.jpg</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/12116450-a3ea-4d7a-a877-9681ca7cdf2d_a96.jpg</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/868cd731-0e61-43a1-8d97-434cc92ed49d_b73.jpg</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{11201} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c1b8af39-28cd-49df-99e9-6e46ca1c50e3_b78.jpg</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{11201} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6acd842e-4441-4dfb-8527-afdbaa93fce8_b81.jpg</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{11201} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/87ae6b07-9d65-43c5-9ac6-592c0572cfaa_b85.jpg</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{11201} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ab046b8c-218b-44c4-86fb-b88575769452_b9.jpg</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{11201} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/419c875c-b122-4d40-b813-90cc9a5d092b_b93.jpg</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{11201} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6b5dd524-fda8-40c0-9dad-b6294c9fe5a2_b98.jpg</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{11201} 人工审批</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/flows/work/.xlsx/转人工审批原因.xlsx
+++ b/flows/work/.xlsx/转人工审批原因.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,84 +448,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/afd8a39f-0c63-40c8-b6f1-ddb781d3891f_b73.jpg</t>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d1b081e3-9042-4d52-9682-5345e4861c5b_a118.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>无法识别发票 错误码：{11201} 人工审批</t>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4ae5fbc7-bc82-4e7b-bef0-8abf4a5a5e14_b78.jpg</t>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/acb7a095-b3d9-4543-94c5-9a4d614b1cdb_a140.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>无法识别发票 错误码：{11201} 人工审批</t>
+          <t>无法识别供应商 人工审批</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/86c12d81-3601-4e96-a135-f5c97f4cb61c_b81.jpg</t>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/15b896d0-201a-469d-88ab-86d6ac167bac_a162.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>无法识别发票 错误码：{11201} 人工审批</t>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/733fd84e-e0d9-4df3-a848-fa52328a7576_b85.jpg</t>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c3a0ee91-bb2c-4ef4-b45e-645a87218f19_a188.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>无法识别发票 错误码：{11201} 人工审批</t>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a5d034db-b869-4ab4-8ed8-d1a27c9baa83_b9.jpg</t>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b3c08a7e-2d70-4def-a095-2f9e7197f3db_a207.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>无法识别发票 错误码：{11201} 人工审批</t>
+          <t>无法识别开票日期 人工审批</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/79eec310-d929-4e1a-97de-1bcaaff852da_b93.jpg</t>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/345093f2-7159-4256-a02d-639af2574866_a218.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>无法识别发票 错误码：{11201} 人工审批</t>
+          <t>无法识别供应商 人工审批</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6324fff3-3c72-44e6-84fd-e500e49c2c73_b98.jpg</t>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/26a97fbe-5688-4a50-ade2-96abcad39668_a238.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>无法识别发票 错误码：{11201} 人工审批</t>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ff6181c0-20a4-4ef5-aee0-6dde1d005fb8_a267.jpg</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/dd18aa41-96bf-4e8f-9e9a-a18930f90e3e_a279.jpg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ec378e9b-e569-4792-b365-7894974bd795_a29.jpg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2f9f6db0-bd2f-4975-9b1b-106153ef1569_a299.jpg</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/69ef7ab6-1b89-4a09-b543-65fe791b3e0e_a3.jpg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f8260a05-0632-4a38-ac83-05fa1536ecff_a317.jpg</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>付款方疑似识别不清 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b8d2eb3e-9ff9-4ea9-a91c-73154a78c091_a332.jpg</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/cae0bae1-8d7e-4965-9975-2b0eb986a346_a40.jpg</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a662c618-fcba-4467-9947-0bc31e0413cf_a56.jpg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>无法识别供应商 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/1d133a3a-c966-4890-8976-b37b8b6e93e6_a69.jpg</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6da9c002-ed85-4a1f-894a-4590b313ef6a_a83.jpg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bfcfb8df-23d7-430c-8c90-c47594368aee_a98.jpg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
         </is>
       </c>
     </row>
